--- a/data/output/FV2410_FV2404/UTILMD/55065.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55065.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="341">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="341">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1146,6 +1146,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U193" totalsRowShown="0">
+  <autoFilter ref="A1:U193"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1435,7 +1465,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10789,5 +10822,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55065.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55065.xlsx
@@ -2138,7 +2138,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4856,7 +4856,7 @@
         <v>322</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5560,7 +5560,7 @@
         <v>324</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5764,7 +5764,7 @@
         <v>325</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5984,7 +5984,7 @@
         <v>326</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6200,7 +6200,7 @@
         <v>327</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6404,7 +6404,7 @@
         <v>329</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6608,7 +6608,7 @@
         <v>330</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6916,7 +6916,7 @@
         <v>331</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7398,7 +7398,7 @@
         <v>334</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7660,7 +7660,7 @@
         <v>336</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7922,7 +7922,7 @@
         <v>325</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8122,7 +8122,7 @@
         <v>325</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8322,7 +8322,7 @@
         <v>325</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8522,7 +8522,7 @@
         <v>325</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8826,7 +8826,7 @@
         <v>337</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9134,7 +9134,7 @@
         <v>338</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9396,7 +9396,7 @@
         <v>339</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10270,7 +10270,7 @@
         <v>340</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11144,7 +11144,7 @@
         <v>341</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N191" s="2"/>
